--- a/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
@@ -640,7 +640,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,7 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -751,11 +750,6 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,19 +764,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -5427,7 +5423,7 @@
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,81 +5457,81 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="60">
         <f t="shared" ref="B3" si="0">((ROUND($L3/10,0))-1)*4+MOD($L3,10)+((J3-1)*16)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="60">
         <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-183.10254037844388</v>
       </c>
-      <c r="D3" s="64">
+      <c r="D3" s="60">
         <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
         <v>116.60254037844388</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="60">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
-        <v>-30</v>
-      </c>
-      <c r="F3" s="63">
+        <v>89.999719388456853</v>
+      </c>
+      <c r="F3" s="59">
         <v>5</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <f t="shared" ref="G3:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>1</v>
       </c>
       <c r="K3" s="12">
@@ -5544,59 +5540,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="60">
         <f t="shared" ref="B4:B7" si="2">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="60">
         <f t="shared" ref="C4:C7" si="3">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-192.3401446854779</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="60">
         <f t="shared" ref="D4:D7" si="4">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>132.60254037844385</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="60">
         <f t="shared" ref="E4:E7" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <v>5</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="38">
+      <c r="J4" s="37">
         <v>1</v>
       </c>
       <c r="K4" s="10">
@@ -5611,50 +5607,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="50">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="60">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="60">
         <f t="shared" si="3"/>
         <v>-210.8153532995459</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="60">
         <f t="shared" si="4"/>
         <v>132.60254037844385</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="60">
         <f t="shared" si="5"/>
         <v>89.999719388456853</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="59">
         <v>5</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>1</v>
       </c>
       <c r="K5" s="10">
@@ -5669,49 +5665,49 @@
       <c r="N5" s="3">
         <v>30</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="60">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="60">
         <f t="shared" si="3"/>
         <v>-220.05295760657992</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <f t="shared" si="4"/>
         <v>148.60254037844385</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <f t="shared" si="5"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="59">
         <v>5</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>1</v>
       </c>
       <c r="K6" s="10">
@@ -5723,50 +5719,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="39">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="60">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="60">
         <f t="shared" si="3"/>
         <v>-210.81535329954593</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="60">
         <f t="shared" si="4"/>
         <v>164.60254037844382</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="60">
         <f t="shared" si="5"/>
         <v>-30</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="59">
         <v>5</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>1</v>
       </c>
       <c r="K7" s="10">
@@ -5781,27 +5777,27 @@
       <c r="N7" s="3">
         <v>146.5</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>1</v>
       </c>
       <c r="K8" s="10">
@@ -5813,29 +5809,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <v>1</v>
       </c>
       <c r="K9" s="10">
@@ -5850,24 +5846,24 @@
       <c r="N9" s="3">
         <v>-20</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="39">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>1</v>
       </c>
       <c r="K10" s="10">
@@ -5882,42 +5878,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="60">
         <f t="shared" ref="B11:B14" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="60">
         <f t="shared" ref="C11:C14" si="7">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-183.1025403784439</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="60">
         <f t="shared" ref="D11:D14" si="8">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>148.60254037844382</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <f t="shared" ref="E11:E14" si="9">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>-30</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="59">
         <v>5</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="62">
         <f t="shared" ref="G11:G14" si="10">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>1</v>
       </c>
       <c r="K11" s="10">
@@ -5929,45 +5925,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="60">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="60">
         <f t="shared" si="7"/>
         <v>-192.34014468547792</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="60">
         <f t="shared" si="8"/>
         <v>164.60254037844379</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <f t="shared" si="9"/>
         <v>29.999859694228427</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="59">
         <v>5</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>1</v>
       </c>
       <c r="K12" s="10">
@@ -5980,42 +5976,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="39">
+      <c r="O12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="60">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="60">
         <f t="shared" si="7"/>
         <v>-183.1025403784439</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="60">
         <f t="shared" si="8"/>
         <v>180.60254037844379</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="60">
         <f t="shared" si="9"/>
         <v>-30</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="59">
         <v>5</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>1</v>
       </c>
       <c r="K13" s="10">
@@ -6028,42 +6024,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="39">
+      <c r="O13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="60">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="60">
         <f t="shared" si="7"/>
         <v>-164.62733176437592</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="60">
         <f t="shared" si="8"/>
         <v>180.60254037844379</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="60">
         <f t="shared" si="9"/>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="59">
         <v>5</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>1</v>
       </c>
       <c r="K14" s="10">
@@ -6076,23 +6072,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="24"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="25"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <v>1</v>
       </c>
       <c r="K15" s="10">
@@ -6105,23 +6101,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>1</v>
       </c>
       <c r="K16" s="10">
@@ -6134,23 +6130,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="39">
+      <c r="O16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>1</v>
       </c>
       <c r="K17" s="10">
@@ -6163,23 +6159,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>1</v>
       </c>
       <c r="K18" s="10">
@@ -6189,45 +6185,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="60">
         <f t="shared" ref="B19" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="60">
         <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-155.38972745734191</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="60">
         <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>164.60254037844382</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="60">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="59">
         <v>5</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="62">
         <f t="shared" ref="G19" si="12">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>1</v>
       </c>
       <c r="K19" s="10">
@@ -6240,23 +6236,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="39">
+      <c r="O19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="26"/>
+      <c r="G20" s="25"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>1</v>
       </c>
       <c r="K20" s="10">
@@ -6269,23 +6265,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>1</v>
       </c>
       <c r="K21" s="10">
@@ -6298,23 +6294,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="39">
+      <c r="O21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>1</v>
       </c>
       <c r="K22" s="10">
@@ -6327,42 +6323,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="60">
         <f t="shared" ref="B23:B25" si="13">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="60">
         <f t="shared" ref="C23:C25" si="14">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-164.6273317643759</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="60">
         <f t="shared" ref="D23:D25" si="15">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>148.60254037844382</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="60">
         <f t="shared" ref="E23:E25" si="16">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="59">
         <v>5</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="62">
         <f t="shared" ref="G23:G25" si="17">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="38">
+      <c r="J23" s="37">
         <v>1</v>
       </c>
       <c r="K23" s="10">
@@ -6375,42 +6371,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="60">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="60">
         <f t="shared" si="14"/>
         <v>-155.38972745734185</v>
       </c>
-      <c r="D24" s="64">
+      <c r="D24" s="60">
         <f t="shared" si="15"/>
         <v>132.60254037844382</v>
       </c>
-      <c r="E24" s="64">
+      <c r="E24" s="60">
         <f t="shared" si="16"/>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F24" s="63">
+      <c r="F24" s="59">
         <v>5</v>
       </c>
-      <c r="G24" s="66">
+      <c r="G24" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="38">
+      <c r="J24" s="37">
         <v>1</v>
       </c>
       <c r="K24" s="10">
@@ -6423,58 +6419,58 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="39">
+      <c r="O24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="64">
+      <c r="B25" s="60">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="C25" s="64">
+      <c r="C25" s="60">
         <f t="shared" si="14"/>
         <v>-164.62733176437587</v>
       </c>
-      <c r="D25" s="64">
+      <c r="D25" s="60">
         <f t="shared" si="15"/>
         <v>116.60254037844385</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="60">
         <f t="shared" si="16"/>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F25" s="63">
+      <c r="F25" s="59">
         <v>5</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="62">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="38">
+      <c r="J25" s="37">
         <v>1</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>16</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46">
+      <c r="N25" s="44"/>
+      <c r="O25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -6742,7 +6738,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6771,62 +6767,62 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="52" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="66"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="36">
+      <c r="J3" s="35">
         <v>2</v>
       </c>
       <c r="K3" s="12">
@@ -6835,59 +6831,59 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="14">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15">
+      <c r="M3" s="6">
+        <v>-2.0943951023932001</v>
+      </c>
+      <c r="N3" s="14">
         <f>+RADIANS(N5)</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="37">
+      <c r="P3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="49">
+      <c r="R3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="60">
         <f t="shared" ref="B4" si="0">((ROUND($L4/10,0))-1)*4+MOD($L4,10)+((J4-1)*16)</f>
         <v>17</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="60">
         <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-155.07774899251189</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="60">
         <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
         <v>36.602540378443869</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="60">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <v>5</v>
       </c>
-      <c r="G4" s="66">
+      <c r="G4" s="62">
         <f t="shared" ref="G4:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>2</v>
       </c>
       <c r="K4" s="10">
@@ -6902,50 +6898,50 @@
       <c r="N4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="39">
+      <c r="O4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="40">
+      <c r="P4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="50" t="s">
+      <c r="Q4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="51">
+      <c r="R4" s="50">
         <v>1</v>
       </c>
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="60">
         <f t="shared" ref="B5:B7" si="2">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
         <v>18</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="60">
         <f t="shared" ref="C5:C7" si="3">((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-164.3153532995459</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="60">
         <f t="shared" ref="D5:D7" si="4">((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
         <v>20.602540378443891</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="60">
         <f t="shared" ref="E5:E7" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F5" s="63">
+      <c r="F5" s="59">
         <v>5</v>
       </c>
-      <c r="G5" s="66">
+      <c r="G5" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>2</v>
       </c>
       <c r="K5" s="10">
@@ -6960,49 +6956,49 @@
       <c r="N5" s="3">
         <v>-30</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="40">
+      <c r="P5" s="39">
         <v>100</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="64">
+      <c r="B6" s="60">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="60">
         <f t="shared" si="3"/>
         <v>-182.79056191361394</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <f t="shared" si="4"/>
         <v>20.602540378443877</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <f t="shared" si="5"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F6" s="63">
+      <c r="F6" s="59">
         <v>5</v>
       </c>
-      <c r="G6" s="66">
+      <c r="G6" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>2</v>
       </c>
       <c r="K6" s="10">
@@ -7014,50 +7010,50 @@
       <c r="M6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="40">
+      <c r="P6" s="39">
         <v>109.237604307034</v>
       </c>
       <c r="S6" s="9"/>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="64">
+      <c r="B7" s="60">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="60">
         <f t="shared" si="3"/>
         <v>-192.02816622064793</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="60">
         <f t="shared" si="4"/>
         <v>36.602540378443848</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="60">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="59">
         <v>5</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="62">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="36">
+      <c r="J7" s="35">
         <v>2</v>
       </c>
       <c r="K7" s="10">
@@ -7072,27 +7068,27 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="40">
+      <c r="P7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="36">
+      <c r="J8" s="35">
         <v>2</v>
       </c>
       <c r="K8" s="10">
@@ -7104,29 +7100,29 @@
       <c r="M8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="40">
+      <c r="P8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="36">
+      <c r="J9" s="35">
         <v>2</v>
       </c>
       <c r="K9" s="10">
@@ -7141,24 +7137,24 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="40">
+      <c r="P9" s="39">
         <v>155.425625842204</v>
       </c>
       <c r="T9" s="7"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="36">
+      <c r="J10" s="35">
         <v>2</v>
       </c>
       <c r="K10" s="10">
@@ -7173,42 +7169,42 @@
       <c r="N10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="40">
+      <c r="P10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="64">
+      <c r="B11" s="60">
         <f t="shared" ref="B11:B15" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
-      <c r="C11" s="64">
+      <c r="C11" s="60">
         <f t="shared" ref="C11:C15" si="7">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-164.31535329954588</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="60">
         <f t="shared" ref="D11:D15" si="8">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
         <v>52.602540378443841</v>
       </c>
-      <c r="E11" s="64">
+      <c r="E11" s="60">
         <f t="shared" ref="E11:E15" si="9">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
         <v>30</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="59">
         <v>5</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="62">
         <f t="shared" ref="G11:G15" si="10">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="36">
+      <c r="J11" s="35">
         <v>2</v>
       </c>
       <c r="K11" s="10">
@@ -7220,45 +7216,45 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="53">
+      <c r="N11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="40">
+      <c r="P11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="64">
+      <c r="B12" s="60">
         <f t="shared" si="6"/>
         <v>29</v>
       </c>
-      <c r="C12" s="64">
+      <c r="C12" s="60">
         <f t="shared" si="7"/>
         <v>-182.79056191361389</v>
       </c>
-      <c r="D12" s="64">
+      <c r="D12" s="60">
         <f t="shared" si="8"/>
         <v>52.602540378443834</v>
       </c>
-      <c r="E12" s="64">
+      <c r="E12" s="60">
         <f t="shared" si="9"/>
         <v>89.999859694228434</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="59">
         <v>5</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="36">
+      <c r="J12" s="35">
         <v>2</v>
       </c>
       <c r="K12" s="10">
@@ -7271,42 +7267,42 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="39">
+      <c r="O12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="40">
+      <c r="P12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="60">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="C13" s="64">
+      <c r="C13" s="60">
         <f t="shared" si="7"/>
         <v>-192.0281662206479</v>
       </c>
-      <c r="D13" s="64">
+      <c r="D13" s="60">
         <f t="shared" si="8"/>
         <v>68.602540378443834</v>
       </c>
-      <c r="E13" s="64">
+      <c r="E13" s="60">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="F13" s="63">
+      <c r="F13" s="59">
         <v>5</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="36">
+      <c r="J13" s="35">
         <v>2</v>
       </c>
       <c r="K13" s="10">
@@ -7319,42 +7315,42 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="39">
+      <c r="O13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="40">
+      <c r="P13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="64">
+      <c r="B14" s="60">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="C14" s="64">
+      <c r="C14" s="60">
         <f t="shared" si="7"/>
         <v>-182.79056191361389</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="60">
         <f t="shared" si="8"/>
         <v>84.602540378443791</v>
       </c>
-      <c r="E14" s="64">
+      <c r="E14" s="60">
         <f t="shared" si="9"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="59">
         <v>5</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="36">
+      <c r="J14" s="35">
         <v>2</v>
       </c>
       <c r="K14" s="10">
@@ -7367,42 +7363,42 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="39">
+      <c r="O14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="40">
+      <c r="P14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="60">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="60">
         <f t="shared" si="7"/>
         <v>-192.02816622064788</v>
       </c>
-      <c r="D15" s="64">
+      <c r="D15" s="60">
         <f t="shared" si="8"/>
         <v>100.60254037844379</v>
       </c>
-      <c r="E15" s="64">
+      <c r="E15" s="60">
         <f t="shared" si="9"/>
         <v>30</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="59">
         <v>5</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="62">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="36">
+      <c r="J15" s="35">
         <v>2</v>
       </c>
       <c r="K15" s="10">
@@ -7415,23 +7411,23 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="39">
+      <c r="O15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="25"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="36">
+      <c r="J16" s="35">
         <v>2</v>
       </c>
       <c r="K16" s="10">
@@ -7444,23 +7440,23 @@
         <v>-1.0471975511966001</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="39">
+      <c r="O16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="40">
+      <c r="P16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="36">
+      <c r="J17" s="35">
         <v>2</v>
       </c>
       <c r="K17" s="10">
@@ -7473,23 +7469,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="39">
+      <c r="O17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="40">
+      <c r="P17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="36">
+      <c r="J18" s="35">
         <v>2</v>
       </c>
       <c r="K18" s="10">
@@ -7499,45 +7495,45 @@
         <v>20</v>
       </c>
       <c r="M18" s="6">
-        <v>0</v>
+        <v>2.0943951023932001</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="39">
+      <c r="O18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="40">
+      <c r="P18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="60">
         <f t="shared" ref="B19:B20" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>26</v>
       </c>
-      <c r="C19" s="64">
+      <c r="C19" s="60">
         <f t="shared" ref="C19:C20" si="12">((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-164.31535329954585</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D19" s="60">
         <f t="shared" ref="D19:D20" si="13">((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
         <v>84.60254037844382</v>
       </c>
-      <c r="E19" s="64">
+      <c r="E19" s="60">
         <f t="shared" ref="E19:E20" si="14">IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F19" s="63">
+      <c r="F19" s="59">
         <v>5</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="62">
         <f t="shared" ref="G19:G20" si="15">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
-      <c r="J19" s="36">
+      <c r="J19" s="35">
         <v>2</v>
       </c>
       <c r="K19" s="10">
@@ -7550,42 +7546,42 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="39">
+      <c r="O19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="64">
+      <c r="B20" s="60">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="C20" s="64">
+      <c r="C20" s="60">
         <f t="shared" si="12"/>
         <v>-155.07774899251183</v>
       </c>
-      <c r="D20" s="64">
+      <c r="D20" s="60">
         <f t="shared" si="13"/>
         <v>100.60254037844379</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="60">
         <f t="shared" si="14"/>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F20" s="63">
+      <c r="F20" s="59">
         <v>5</v>
       </c>
-      <c r="G20" s="66">
+      <c r="G20" s="62">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="36">
+      <c r="J20" s="35">
         <v>2</v>
       </c>
       <c r="K20" s="10">
@@ -7598,23 +7594,23 @@
         <v>1.0471975511966001</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="39">
+      <c r="O20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="26"/>
+      <c r="G21" s="25"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="36">
+      <c r="J21" s="35">
         <v>2</v>
       </c>
       <c r="K21" s="10">
@@ -7627,23 +7623,23 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="39">
+      <c r="O21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="26"/>
+      <c r="G22" s="25"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="36">
+      <c r="J22" s="35">
         <v>2</v>
       </c>
       <c r="K22" s="10">
@@ -7656,42 +7652,42 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="39">
+      <c r="O22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="64">
+      <c r="B23" s="60">
         <f t="shared" ref="B23" si="16">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>27</v>
       </c>
-      <c r="C23" s="64">
+      <c r="C23" s="60">
         <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
         <v>-155.07774899251186</v>
       </c>
-      <c r="D23" s="64">
+      <c r="D23" s="60">
         <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
         <v>68.60254037844382</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="60">
         <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F23" s="63">
+      <c r="F23" s="59">
         <v>5</v>
       </c>
-      <c r="G23" s="66">
+      <c r="G23" s="62">
         <f t="shared" ref="G23" si="17">IF($R$3*$R$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="36">
+      <c r="J23" s="35">
         <v>2</v>
       </c>
       <c r="K23" s="10">
@@ -7704,23 +7700,23 @@
         <v>3.14159265358979</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="39">
+      <c r="O23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="40">
+      <c r="P23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="66"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="62"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="36">
+      <c r="J24" s="35">
         <v>2</v>
       </c>
       <c r="K24" s="10">
@@ -7733,39 +7729,39 @@
         <v>2.0943951023932001</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="39">
+      <c r="O24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="40">
+      <c r="P24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="66"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="62"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="36">
+      <c r="J25" s="35">
         <v>2</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <v>16</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="44">
+      <c r="M25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46">
+      <c r="N25" s="44"/>
+      <c r="O25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="47">
+      <c r="P25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
@@ -7775,7 +7771,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="54"/>
+      <c r="N30" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7788,73 +7784,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="70"/>
-    <col min="5" max="5" width="11.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="65"/>
+    <col min="5" max="5" width="11.28515625" style="65" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="str">
+      <c r="A3" s="56" t="str">
         <f>IF(top!A3=0, "", top!A3)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="69">
         <f>IF(top!B3="", "", top!B3)</f>
         <v>0</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="70">
         <f>IF(top!C3="", "", top!C3)</f>
         <v>-183.10254037844388</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="70">
         <f>IF(top!D3="", "", top!D3)</f>
         <v>116.60254037844388</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="70">
         <f>IF(top!E3="", "", top!E3)</f>
-        <v>-30</v>
-      </c>
-      <c r="F3" s="57">
+        <v>89.999719388456853</v>
+      </c>
+      <c r="F3" s="70">
         <f>IF(top!F3=0, "", top!F3)</f>
         <v>5</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="70">
         <f>IF(top!$A3="", "", top!G3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="str">
+      <c r="A4" s="63" t="str">
         <f>IF(top!A4=0, "", top!A4)</f>
         <v>triangle_10pad</v>
       </c>
@@ -7862,29 +7858,29 @@
         <f>IF(top!B4="", "", top!B4)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="72">
+      <c r="C4" s="70">
         <f>IF(top!C4="", "", top!C4)</f>
         <v>-192.3401446854779</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="70">
         <f>IF(top!D4="", "", top!D4)</f>
         <v>132.60254037844385</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="70">
         <f>IF(top!E4="", "", top!E4)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="70">
         <f>IF(top!F4=0, "", top!F4)</f>
         <v>5</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="70">
         <f>IF(top!$A4="", "", top!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="str">
+      <c r="A5" s="63" t="str">
         <f>IF(top!A5=0, "", top!A5)</f>
         <v>triangle_10pad</v>
       </c>
@@ -7892,29 +7888,29 @@
         <f>IF(top!B5="", "", top!B5)</f>
         <v>2</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="70">
         <f>IF(top!C5="", "", top!C5)</f>
         <v>-210.8153532995459</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="70">
         <f>IF(top!D5="", "", top!D5)</f>
         <v>132.60254037844385</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="70">
         <f>IF(top!E5="", "", top!E5)</f>
         <v>89.999719388456853</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="70">
         <f>IF(top!F5=0, "", top!F5)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="70">
         <f>IF(top!$A5="", "", top!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="str">
+      <c r="A6" s="63" t="str">
         <f>IF(top!A6=0, "", top!A6)</f>
         <v>triangle_10pad</v>
       </c>
@@ -7922,29 +7918,29 @@
         <f>IF(top!B6="", "", top!B6)</f>
         <v>3</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="70">
         <f>IF(top!C6="", "", top!C6)</f>
         <v>-220.05295760657992</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="70">
         <f>IF(top!D6="", "", top!D6)</f>
         <v>148.60254037844385</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="70">
         <f>IF(top!E6="", "", top!E6)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="70">
         <f>IF(top!F6=0, "", top!F6)</f>
         <v>5</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="70">
         <f>IF(top!$A6="", "", top!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="str">
+      <c r="A7" s="63" t="str">
         <f>IF(top!A7=0, "", top!A7)</f>
         <v>triangle_10pad</v>
       </c>
@@ -7952,29 +7948,29 @@
         <f>IF(top!B7="", "", top!B7)</f>
         <v>4</v>
       </c>
-      <c r="C7" s="72">
+      <c r="C7" s="70">
         <f>IF(top!C7="", "", top!C7)</f>
         <v>-210.81535329954593</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="70">
         <f>IF(top!D7="", "", top!D7)</f>
         <v>164.60254037844382</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="70">
         <f>IF(top!E7="", "", top!E7)</f>
         <v>-30</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="70">
         <f>IF(top!F7=0, "", top!F7)</f>
         <v>5</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="70">
         <f>IF(top!$A7="", "", top!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="str">
+      <c r="A8" s="63" t="str">
         <f>IF(top!A8=0, "", top!A8)</f>
         <v/>
       </c>
@@ -7982,29 +7978,29 @@
         <f>IF(top!B8="", "", top!B8)</f>
         <v/>
       </c>
-      <c r="C8" s="72" t="str">
+      <c r="C8" s="70" t="str">
         <f>IF(top!C8="", "", top!C8)</f>
         <v/>
       </c>
-      <c r="D8" s="72" t="str">
+      <c r="D8" s="70" t="str">
         <f>IF(top!D8="", "", top!D8)</f>
         <v/>
       </c>
-      <c r="E8" s="72" t="str">
+      <c r="E8" s="70" t="str">
         <f>IF(top!E8="", "", top!E8)</f>
         <v/>
       </c>
-      <c r="F8" s="67" t="str">
+      <c r="F8" s="70" t="str">
         <f>IF(top!F8=0, "", top!F8)</f>
         <v/>
       </c>
-      <c r="G8" s="67" t="str">
+      <c r="G8" s="70" t="str">
         <f>IF(top!$A8="", "", top!G8)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="str">
+      <c r="A9" s="63" t="str">
         <f>IF(top!A9=0, "", top!A9)</f>
         <v/>
       </c>
@@ -8012,29 +8008,29 @@
         <f>IF(top!B9="", "", top!B9)</f>
         <v/>
       </c>
-      <c r="C9" s="72" t="str">
+      <c r="C9" s="70" t="str">
         <f>IF(top!C9="", "", top!C9)</f>
         <v/>
       </c>
-      <c r="D9" s="72" t="str">
+      <c r="D9" s="70" t="str">
         <f>IF(top!D9="", "", top!D9)</f>
         <v/>
       </c>
-      <c r="E9" s="72" t="str">
+      <c r="E9" s="70" t="str">
         <f>IF(top!E9="", "", top!E9)</f>
         <v/>
       </c>
-      <c r="F9" s="67" t="str">
+      <c r="F9" s="70" t="str">
         <f>IF(top!F9=0, "", top!F9)</f>
         <v/>
       </c>
-      <c r="G9" s="67" t="str">
+      <c r="G9" s="70" t="str">
         <f>IF(top!$A9="", "", top!G9)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="str">
+      <c r="A10" s="63" t="str">
         <f>IF(top!A10=0, "", top!A10)</f>
         <v/>
       </c>
@@ -8042,29 +8038,29 @@
         <f>IF(top!B10="", "", top!B10)</f>
         <v/>
       </c>
-      <c r="C10" s="72" t="str">
+      <c r="C10" s="70" t="str">
         <f>IF(top!C10="", "", top!C10)</f>
         <v/>
       </c>
-      <c r="D10" s="72" t="str">
+      <c r="D10" s="70" t="str">
         <f>IF(top!D10="", "", top!D10)</f>
         <v/>
       </c>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="70" t="str">
         <f>IF(top!E10="", "", top!E10)</f>
         <v/>
       </c>
-      <c r="F10" s="67" t="str">
+      <c r="F10" s="70" t="str">
         <f>IF(top!F10=0, "", top!F10)</f>
         <v/>
       </c>
-      <c r="G10" s="67" t="str">
+      <c r="G10" s="70" t="str">
         <f>IF(top!$A10="", "", top!G10)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="str">
+      <c r="A11" s="63" t="str">
         <f>IF(top!A11=0, "", top!A11)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8072,29 +8068,29 @@
         <f>IF(top!B11="", "", top!B11)</f>
         <v>12</v>
       </c>
-      <c r="C11" s="72">
+      <c r="C11" s="70">
         <f>IF(top!C11="", "", top!C11)</f>
         <v>-183.1025403784439</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="70">
         <f>IF(top!D11="", "", top!D11)</f>
         <v>148.60254037844382</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="70">
         <f>IF(top!E11="", "", top!E11)</f>
         <v>-30</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="70">
         <f>IF(top!F11=0, "", top!F11)</f>
         <v>5</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="70">
         <f>IF(top!$A11="", "", top!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="str">
+      <c r="A12" s="63" t="str">
         <f>IF(top!A12=0, "", top!A12)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8102,29 +8098,29 @@
         <f>IF(top!B12="", "", top!B12)</f>
         <v>13</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <f>IF(top!C12="", "", top!C12)</f>
         <v>-192.34014468547792</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="70">
         <f>IF(top!D12="", "", top!D12)</f>
         <v>164.60254037844379</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="70">
         <f>IF(top!E12="", "", top!E12)</f>
         <v>29.999859694228427</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="70">
         <f>IF(top!F12=0, "", top!F12)</f>
         <v>5</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="70">
         <f>IF(top!$A12="", "", top!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="str">
+      <c r="A13" s="63" t="str">
         <f>IF(top!A13=0, "", top!A13)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8132,29 +8128,29 @@
         <f>IF(top!B13="", "", top!B13)</f>
         <v>8</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="70">
         <f>IF(top!C13="", "", top!C13)</f>
         <v>-183.1025403784439</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="70">
         <f>IF(top!D13="", "", top!D13)</f>
         <v>180.60254037844379</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="70">
         <f>IF(top!E13="", "", top!E13)</f>
         <v>-30</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="70">
         <f>IF(top!F13=0, "", top!F13)</f>
         <v>5</v>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="70">
         <f>IF(top!$A13="", "", top!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="str">
+      <c r="A14" s="63" t="str">
         <f>IF(top!A14=0, "", top!A14)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8162,29 +8158,29 @@
         <f>IF(top!B14="", "", top!B14)</f>
         <v>9</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="70">
         <f>IF(top!C14="", "", top!C14)</f>
         <v>-164.62733176437592</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="70">
         <f>IF(top!D14="", "", top!D14)</f>
         <v>180.60254037844379</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="70">
         <f>IF(top!E14="", "", top!E14)</f>
         <v>-89.999859694228434</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="70">
         <f>IF(top!F14=0, "", top!F14)</f>
         <v>5</v>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="70">
         <f>IF(top!$A14="", "", top!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="str">
+      <c r="A15" s="63" t="str">
         <f>IF(top!A15=0, "", top!A15)</f>
         <v/>
       </c>
@@ -8192,29 +8188,29 @@
         <f>IF(top!B15="", "", top!B15)</f>
         <v/>
       </c>
-      <c r="C15" s="72" t="str">
+      <c r="C15" s="70" t="str">
         <f>IF(top!C15="", "", top!C15)</f>
         <v/>
       </c>
-      <c r="D15" s="72" t="str">
+      <c r="D15" s="70" t="str">
         <f>IF(top!D15="", "", top!D15)</f>
         <v/>
       </c>
-      <c r="E15" s="72" t="str">
+      <c r="E15" s="70" t="str">
         <f>IF(top!E15="", "", top!E15)</f>
         <v/>
       </c>
-      <c r="F15" s="67" t="str">
+      <c r="F15" s="70" t="str">
         <f>IF(top!F15=0, "", top!F15)</f>
         <v/>
       </c>
-      <c r="G15" s="67" t="str">
+      <c r="G15" s="70" t="str">
         <f>IF(top!$A15="", "", top!G15)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="str">
+      <c r="A16" s="63" t="str">
         <f>IF(top!A16=0, "", top!A16)</f>
         <v/>
       </c>
@@ -8222,29 +8218,29 @@
         <f>IF(top!B16="", "", top!B16)</f>
         <v/>
       </c>
-      <c r="C16" s="72" t="str">
+      <c r="C16" s="70" t="str">
         <f>IF(top!C16="", "", top!C16)</f>
         <v/>
       </c>
-      <c r="D16" s="72" t="str">
+      <c r="D16" s="70" t="str">
         <f>IF(top!D16="", "", top!D16)</f>
         <v/>
       </c>
-      <c r="E16" s="72" t="str">
+      <c r="E16" s="70" t="str">
         <f>IF(top!E16="", "", top!E16)</f>
         <v/>
       </c>
-      <c r="F16" s="67" t="str">
+      <c r="F16" s="70" t="str">
         <f>IF(top!F16=0, "", top!F16)</f>
         <v/>
       </c>
-      <c r="G16" s="67" t="str">
+      <c r="G16" s="70" t="str">
         <f>IF(top!$A16="", "", top!G16)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="67" t="str">
+      <c r="A17" s="63" t="str">
         <f>IF(top!A17=0, "", top!A17)</f>
         <v/>
       </c>
@@ -8252,29 +8248,29 @@
         <f>IF(top!B17="", "", top!B17)</f>
         <v/>
       </c>
-      <c r="C17" s="72" t="str">
+      <c r="C17" s="70" t="str">
         <f>IF(top!C17="", "", top!C17)</f>
         <v/>
       </c>
-      <c r="D17" s="72" t="str">
+      <c r="D17" s="70" t="str">
         <f>IF(top!D17="", "", top!D17)</f>
         <v/>
       </c>
-      <c r="E17" s="72" t="str">
+      <c r="E17" s="70" t="str">
         <f>IF(top!E17="", "", top!E17)</f>
         <v/>
       </c>
-      <c r="F17" s="67" t="str">
+      <c r="F17" s="70" t="str">
         <f>IF(top!F17=0, "", top!F17)</f>
         <v/>
       </c>
-      <c r="G17" s="67" t="str">
+      <c r="G17" s="70" t="str">
         <f>IF(top!$A17="", "", top!G17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="str">
+      <c r="A18" s="63" t="str">
         <f>IF(top!A18=0, "", top!A18)</f>
         <v/>
       </c>
@@ -8282,29 +8278,29 @@
         <f>IF(top!B18="", "", top!B18)</f>
         <v/>
       </c>
-      <c r="C18" s="72" t="str">
+      <c r="C18" s="70" t="str">
         <f>IF(top!C18="", "", top!C18)</f>
         <v/>
       </c>
-      <c r="D18" s="72" t="str">
+      <c r="D18" s="70" t="str">
         <f>IF(top!D18="", "", top!D18)</f>
         <v/>
       </c>
-      <c r="E18" s="72" t="str">
+      <c r="E18" s="70" t="str">
         <f>IF(top!E18="", "", top!E18)</f>
         <v/>
       </c>
-      <c r="F18" s="67" t="str">
+      <c r="F18" s="70" t="str">
         <f>IF(top!F18=0, "", top!F18)</f>
         <v/>
       </c>
-      <c r="G18" s="67" t="str">
+      <c r="G18" s="70" t="str">
         <f>IF(top!$A18="", "", top!G18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="str">
+      <c r="A19" s="63" t="str">
         <f>IF(top!A19=0, "", top!A19)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8312,29 +8308,29 @@
         <f>IF(top!B19="", "", top!B19)</f>
         <v>10</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="70">
         <f>IF(top!C19="", "", top!C19)</f>
         <v>-155.38972745734191</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="70">
         <f>IF(top!D19="", "", top!D19)</f>
         <v>164.60254037844382</v>
       </c>
-      <c r="E19" s="72">
+      <c r="E19" s="70">
         <f>IF(top!E19="", "", top!E19)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F19" s="67">
+      <c r="F19" s="70">
         <f>IF(top!F19=0, "", top!F19)</f>
         <v>5</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="70">
         <f>IF(top!$A19="", "", top!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="str">
+      <c r="A20" s="63" t="str">
         <f>IF(top!A20=0, "", top!A20)</f>
         <v/>
       </c>
@@ -8342,29 +8338,29 @@
         <f>IF(top!B20="", "", top!B20)</f>
         <v/>
       </c>
-      <c r="C20" s="72" t="str">
+      <c r="C20" s="70" t="str">
         <f>IF(top!C20="", "", top!C20)</f>
         <v/>
       </c>
-      <c r="D20" s="72" t="str">
+      <c r="D20" s="70" t="str">
         <f>IF(top!D20="", "", top!D20)</f>
         <v/>
       </c>
-      <c r="E20" s="72" t="str">
+      <c r="E20" s="70" t="str">
         <f>IF(top!E20="", "", top!E20)</f>
         <v/>
       </c>
-      <c r="F20" s="67" t="str">
+      <c r="F20" s="70" t="str">
         <f>IF(top!F20=0, "", top!F20)</f>
         <v/>
       </c>
-      <c r="G20" s="67" t="str">
+      <c r="G20" s="70" t="str">
         <f>IF(top!$A20="", "", top!G20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="str">
+      <c r="A21" s="63" t="str">
         <f>IF(top!A21=0, "", top!A21)</f>
         <v/>
       </c>
@@ -8372,29 +8368,29 @@
         <f>IF(top!B21="", "", top!B21)</f>
         <v/>
       </c>
-      <c r="C21" s="72" t="str">
+      <c r="C21" s="70" t="str">
         <f>IF(top!C21="", "", top!C21)</f>
         <v/>
       </c>
-      <c r="D21" s="72" t="str">
+      <c r="D21" s="70" t="str">
         <f>IF(top!D21="", "", top!D21)</f>
         <v/>
       </c>
-      <c r="E21" s="72" t="str">
+      <c r="E21" s="70" t="str">
         <f>IF(top!E21="", "", top!E21)</f>
         <v/>
       </c>
-      <c r="F21" s="67" t="str">
+      <c r="F21" s="70" t="str">
         <f>IF(top!F21=0, "", top!F21)</f>
         <v/>
       </c>
-      <c r="G21" s="67" t="str">
+      <c r="G21" s="70" t="str">
         <f>IF(top!$A21="", "", top!G21)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="str">
+      <c r="A22" s="63" t="str">
         <f>IF(top!A22=0, "", top!A22)</f>
         <v/>
       </c>
@@ -8402,29 +8398,29 @@
         <f>IF(top!B22="", "", top!B22)</f>
         <v/>
       </c>
-      <c r="C22" s="72" t="str">
+      <c r="C22" s="70" t="str">
         <f>IF(top!C22="", "", top!C22)</f>
         <v/>
       </c>
-      <c r="D22" s="72" t="str">
+      <c r="D22" s="70" t="str">
         <f>IF(top!D22="", "", top!D22)</f>
         <v/>
       </c>
-      <c r="E22" s="72" t="str">
+      <c r="E22" s="70" t="str">
         <f>IF(top!E22="", "", top!E22)</f>
         <v/>
       </c>
-      <c r="F22" s="67" t="str">
+      <c r="F22" s="70" t="str">
         <f>IF(top!F22=0, "", top!F22)</f>
         <v/>
       </c>
-      <c r="G22" s="67" t="str">
+      <c r="G22" s="70" t="str">
         <f>IF(top!$A22="", "", top!G22)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="str">
+      <c r="A23" s="63" t="str">
         <f>IF(top!A23=0, "", top!A23)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8432,29 +8428,29 @@
         <f>IF(top!B23="", "", top!B23)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="70">
         <f>IF(top!C23="", "", top!C23)</f>
         <v>-164.6273317643759</v>
       </c>
-      <c r="D23" s="72">
+      <c r="D23" s="70">
         <f>IF(top!D23="", "", top!D23)</f>
         <v>148.60254037844382</v>
       </c>
-      <c r="E23" s="72">
+      <c r="E23" s="70">
         <f>IF(top!E23="", "", top!E23)</f>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F23" s="67">
+      <c r="F23" s="70">
         <f>IF(top!F23=0, "", top!F23)</f>
         <v>5</v>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="70">
         <f>IF(top!$A23="", "", top!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="67" t="str">
+      <c r="A24" s="63" t="str">
         <f>IF(top!A24=0, "", top!A24)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8462,29 +8458,29 @@
         <f>IF(top!B24="", "", top!B24)</f>
         <v>14</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="70">
         <f>IF(top!C24="", "", top!C24)</f>
         <v>-155.38972745734185</v>
       </c>
-      <c r="D24" s="72">
+      <c r="D24" s="70">
         <f>IF(top!D24="", "", top!D24)</f>
         <v>132.60254037844382</v>
       </c>
-      <c r="E24" s="72">
+      <c r="E24" s="70">
         <f>IF(top!E24="", "", top!E24)</f>
         <v>-149.99971938845687</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="70">
         <f>IF(top!F24=0, "", top!F24)</f>
         <v>5</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="70">
         <f>IF(top!$A24="", "", top!G24)</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="str">
+      <c r="A25" s="63" t="str">
         <f>IF(top!A25=0, "", top!A25)</f>
         <v>triangle_10pad</v>
       </c>
@@ -8492,1139 +8488,1139 @@
         <f>IF(top!B25="", "", top!B25)</f>
         <v>15</v>
       </c>
-      <c r="C25" s="72">
+      <c r="C25" s="70">
         <f>IF(top!C25="", "", top!C25)</f>
         <v>-164.62733176437587</v>
       </c>
-      <c r="D25" s="72">
+      <c r="D25" s="70">
         <f>IF(top!D25="", "", top!D25)</f>
         <v>116.60254037844385</v>
       </c>
-      <c r="E25" s="72">
+      <c r="E25" s="70">
         <f>IF(top!E25="", "", top!E25)</f>
         <v>-209.99957908268468</v>
       </c>
-      <c r="F25" s="67">
+      <c r="F25" s="70">
         <f>IF(top!F25=0, "", top!F25)</f>
         <v>5</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="70">
         <f>IF(top!$A25="", "", top!G25)</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="56" t="str">
+      <c r="A26" s="55" t="str">
         <f>IF(bottom!A3="", "", bottom!A3)</f>
         <v/>
       </c>
-      <c r="B26" s="56" t="str">
+      <c r="B26" s="71" t="str">
         <f>IF(bottom!B3="", "", bottom!B3)</f>
         <v/>
       </c>
-      <c r="C26" s="61" t="str">
+      <c r="C26" s="71" t="str">
         <f>IF(bottom!C3="", "", bottom!C3)</f>
         <v/>
       </c>
-      <c r="D26" s="61" t="str">
+      <c r="D26" s="71" t="str">
         <f>IF(bottom!D3="", "", bottom!D3)</f>
         <v/>
       </c>
-      <c r="E26" s="61" t="str">
+      <c r="E26" s="71" t="str">
         <f>IF(bottom!E3="", "", bottom!E3)</f>
         <v/>
       </c>
-      <c r="F26" s="56" t="str">
+      <c r="F26" s="71" t="str">
         <f>IF(bottom!F3="", "", bottom!F3)</f>
         <v/>
       </c>
-      <c r="G26" s="56" t="str">
+      <c r="G26" s="71" t="str">
         <f>IF(bottom!A3="", "", bottom!G3)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="56" t="str">
+      <c r="A27" s="55" t="str">
         <f>IF(bottom!A4="", "", bottom!A4)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B27" s="56">
+      <c r="B27" s="71">
         <f>IF(bottom!B4="", "", bottom!B4)</f>
         <v>17</v>
       </c>
-      <c r="C27" s="61">
+      <c r="C27" s="71">
         <f>IF(bottom!C4="", "", bottom!C4)</f>
         <v>-155.07774899251189</v>
       </c>
-      <c r="D27" s="61">
+      <c r="D27" s="71">
         <f>IF(bottom!D4="", "", bottom!D4)</f>
         <v>36.602540378443869</v>
       </c>
-      <c r="E27" s="61">
+      <c r="E27" s="71">
         <f>IF(bottom!E4="", "", bottom!E4)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="71">
         <f>IF(bottom!F4="", "", bottom!F4)</f>
         <v>5</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="71">
         <f>IF(bottom!A4="", "", bottom!G4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="56" t="str">
+      <c r="A28" s="55" t="str">
         <f>IF(bottom!A5="", "", bottom!A5)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="71">
         <f>IF(bottom!B5="", "", bottom!B5)</f>
         <v>18</v>
       </c>
-      <c r="C28" s="61">
+      <c r="C28" s="71">
         <f>IF(bottom!C5="", "", bottom!C5)</f>
         <v>-164.3153532995459</v>
       </c>
-      <c r="D28" s="61">
+      <c r="D28" s="71">
         <f>IF(bottom!D5="", "", bottom!D5)</f>
         <v>20.602540378443891</v>
       </c>
-      <c r="E28" s="61">
+      <c r="E28" s="71">
         <f>IF(bottom!E5="", "", bottom!E5)</f>
         <v>149.99971938845687</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="71">
         <f>IF(bottom!F5="", "", bottom!F5)</f>
         <v>5</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="71">
         <f>IF(bottom!A5="", "", bottom!G5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="56" t="str">
+      <c r="A29" s="55" t="str">
         <f>IF(bottom!A6="", "", bottom!A6)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B29" s="56">
+      <c r="B29" s="71">
         <f>IF(bottom!B6="", "", bottom!B6)</f>
         <v>19</v>
       </c>
-      <c r="C29" s="61">
+      <c r="C29" s="71">
         <f>IF(bottom!C6="", "", bottom!C6)</f>
         <v>-182.79056191361394</v>
       </c>
-      <c r="D29" s="61">
+      <c r="D29" s="71">
         <f>IF(bottom!D6="", "", bottom!D6)</f>
         <v>20.602540378443877</v>
       </c>
-      <c r="E29" s="61">
+      <c r="E29" s="71">
         <f>IF(bottom!E6="", "", bottom!E6)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="71">
         <f>IF(bottom!F6="", "", bottom!F6)</f>
         <v>5</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="71">
         <f>IF(bottom!A6="", "", bottom!G6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="str">
+      <c r="A30" s="55" t="str">
         <f>IF(bottom!A7="", "", bottom!A7)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B30" s="56">
+      <c r="B30" s="71">
         <f>IF(bottom!B7="", "", bottom!B7)</f>
         <v>20</v>
       </c>
-      <c r="C30" s="61">
+      <c r="C30" s="71">
         <f>IF(bottom!C7="", "", bottom!C7)</f>
         <v>-192.02816622064793</v>
       </c>
-      <c r="D30" s="61">
+      <c r="D30" s="71">
         <f>IF(bottom!D7="", "", bottom!D7)</f>
         <v>36.602540378443848</v>
       </c>
-      <c r="E30" s="61">
+      <c r="E30" s="71">
         <f>IF(bottom!E7="", "", bottom!E7)</f>
         <v>30</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="71">
         <f>IF(bottom!F7="", "", bottom!F7)</f>
         <v>5</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="71">
         <f>IF(bottom!A7="", "", bottom!G7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="str">
+      <c r="A31" s="55" t="str">
         <f>IF(bottom!A8="", "", bottom!A8)</f>
         <v/>
       </c>
-      <c r="B31" s="56" t="str">
+      <c r="B31" s="71" t="str">
         <f>IF(bottom!B8="", "", bottom!B8)</f>
         <v/>
       </c>
-      <c r="C31" s="61" t="str">
+      <c r="C31" s="71" t="str">
         <f>IF(bottom!C8="", "", bottom!C8)</f>
         <v/>
       </c>
-      <c r="D31" s="61" t="str">
+      <c r="D31" s="71" t="str">
         <f>IF(bottom!D8="", "", bottom!D8)</f>
         <v/>
       </c>
-      <c r="E31" s="61" t="str">
+      <c r="E31" s="71" t="str">
         <f>IF(bottom!E8="", "", bottom!E8)</f>
         <v/>
       </c>
-      <c r="F31" s="56" t="str">
+      <c r="F31" s="71" t="str">
         <f>IF(bottom!F8="", "", bottom!F8)</f>
         <v/>
       </c>
-      <c r="G31" s="56" t="str">
+      <c r="G31" s="71" t="str">
         <f>IF(bottom!A8="", "", bottom!G8)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="str">
+      <c r="A32" s="55" t="str">
         <f>IF(bottom!A9="", "", bottom!A9)</f>
         <v/>
       </c>
-      <c r="B32" s="56" t="str">
+      <c r="B32" s="71" t="str">
         <f>IF(bottom!B9="", "", bottom!B9)</f>
         <v/>
       </c>
-      <c r="C32" s="61" t="str">
+      <c r="C32" s="71" t="str">
         <f>IF(bottom!C9="", "", bottom!C9)</f>
         <v/>
       </c>
-      <c r="D32" s="61" t="str">
+      <c r="D32" s="71" t="str">
         <f>IF(bottom!D9="", "", bottom!D9)</f>
         <v/>
       </c>
-      <c r="E32" s="61" t="str">
+      <c r="E32" s="71" t="str">
         <f>IF(bottom!E9="", "", bottom!E9)</f>
         <v/>
       </c>
-      <c r="F32" s="56" t="str">
+      <c r="F32" s="71" t="str">
         <f>IF(bottom!F9="", "", bottom!F9)</f>
         <v/>
       </c>
-      <c r="G32" s="56" t="str">
+      <c r="G32" s="71" t="str">
         <f>IF(bottom!A9="", "", bottom!G9)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="str">
+      <c r="A33" s="55" t="str">
         <f>IF(bottom!A10="", "", bottom!A10)</f>
         <v/>
       </c>
-      <c r="B33" s="56" t="str">
+      <c r="B33" s="71" t="str">
         <f>IF(bottom!B10="", "", bottom!B10)</f>
         <v/>
       </c>
-      <c r="C33" s="61" t="str">
+      <c r="C33" s="71" t="str">
         <f>IF(bottom!C10="", "", bottom!C10)</f>
         <v/>
       </c>
-      <c r="D33" s="61" t="str">
+      <c r="D33" s="71" t="str">
         <f>IF(bottom!D10="", "", bottom!D10)</f>
         <v/>
       </c>
-      <c r="E33" s="61" t="str">
+      <c r="E33" s="71" t="str">
         <f>IF(bottom!E10="", "", bottom!E10)</f>
         <v/>
       </c>
-      <c r="F33" s="56" t="str">
+      <c r="F33" s="71" t="str">
         <f>IF(bottom!F10="", "", bottom!F10)</f>
         <v/>
       </c>
-      <c r="G33" s="56" t="str">
+      <c r="G33" s="71" t="str">
         <f>IF(bottom!A10="", "", bottom!G10)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="str">
+      <c r="A34" s="55" t="str">
         <f>IF(bottom!A11="", "", bottom!A11)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B34" s="56">
+      <c r="B34" s="71">
         <f>IF(bottom!B11="", "", bottom!B11)</f>
         <v>28</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="71">
         <f>IF(bottom!C11="", "", bottom!C11)</f>
         <v>-164.31535329954588</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="71">
         <f>IF(bottom!D11="", "", bottom!D11)</f>
         <v>52.602540378443841</v>
       </c>
-      <c r="E34" s="61">
+      <c r="E34" s="71">
         <f>IF(bottom!E11="", "", bottom!E11)</f>
         <v>30</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="71">
         <f>IF(bottom!F11="", "", bottom!F11)</f>
         <v>5</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="71">
         <f>IF(bottom!A11="", "", bottom!G11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="str">
+      <c r="A35" s="55" t="str">
         <f>IF(bottom!A12="", "", bottom!A12)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B35" s="56">
+      <c r="B35" s="71">
         <f>IF(bottom!B12="", "", bottom!B12)</f>
         <v>29</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="71">
         <f>IF(bottom!C12="", "", bottom!C12)</f>
         <v>-182.79056191361389</v>
       </c>
-      <c r="D35" s="61">
+      <c r="D35" s="71">
         <f>IF(bottom!D12="", "", bottom!D12)</f>
         <v>52.602540378443834</v>
       </c>
-      <c r="E35" s="61">
+      <c r="E35" s="71">
         <f>IF(bottom!E12="", "", bottom!E12)</f>
         <v>89.999859694228434</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="71">
         <f>IF(bottom!F12="", "", bottom!F12)</f>
         <v>5</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="71">
         <f>IF(bottom!A12="", "", bottom!G12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="56" t="str">
+      <c r="A36" s="55" t="str">
         <f>IF(bottom!A13="", "", bottom!A13)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B36" s="56">
+      <c r="B36" s="71">
         <f>IF(bottom!B13="", "", bottom!B13)</f>
         <v>24</v>
       </c>
-      <c r="C36" s="61">
+      <c r="C36" s="71">
         <f>IF(bottom!C13="", "", bottom!C13)</f>
         <v>-192.0281662206479</v>
       </c>
-      <c r="D36" s="61">
+      <c r="D36" s="71">
         <f>IF(bottom!D13="", "", bottom!D13)</f>
         <v>68.602540378443834</v>
       </c>
-      <c r="E36" s="61">
+      <c r="E36" s="71">
         <f>IF(bottom!E13="", "", bottom!E13)</f>
         <v>30</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="71">
         <f>IF(bottom!F13="", "", bottom!F13)</f>
         <v>5</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="71">
         <f>IF(bottom!A13="", "", bottom!G13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="str">
+      <c r="A37" s="55" t="str">
         <f>IF(bottom!A14="", "", bottom!A14)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B37" s="56">
+      <c r="B37" s="71">
         <f>IF(bottom!B14="", "", bottom!B14)</f>
         <v>25</v>
       </c>
-      <c r="C37" s="61">
+      <c r="C37" s="71">
         <f>IF(bottom!C14="", "", bottom!C14)</f>
         <v>-182.79056191361389</v>
       </c>
-      <c r="D37" s="61">
+      <c r="D37" s="71">
         <f>IF(bottom!D14="", "", bottom!D14)</f>
         <v>84.602540378443791</v>
       </c>
-      <c r="E37" s="61">
+      <c r="E37" s="71">
         <f>IF(bottom!E14="", "", bottom!E14)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="71">
         <f>IF(bottom!F14="", "", bottom!F14)</f>
         <v>5</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="71">
         <f>IF(bottom!A14="", "", bottom!G14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="56" t="str">
+      <c r="A38" s="55" t="str">
         <f>IF(bottom!A15="", "", bottom!A15)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B38" s="56">
+      <c r="B38" s="71">
         <f>IF(bottom!B15="", "", bottom!B15)</f>
         <v>22</v>
       </c>
-      <c r="C38" s="61">
+      <c r="C38" s="71">
         <f>IF(bottom!C15="", "", bottom!C15)</f>
         <v>-192.02816622064788</v>
       </c>
-      <c r="D38" s="61">
+      <c r="D38" s="71">
         <f>IF(bottom!D15="", "", bottom!D15)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E38" s="61">
+      <c r="E38" s="71">
         <f>IF(bottom!E15="", "", bottom!E15)</f>
         <v>30</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="71">
         <f>IF(bottom!F15="", "", bottom!F15)</f>
         <v>5</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="71">
         <f>IF(bottom!A15="", "", bottom!G15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="56" t="str">
+      <c r="A39" s="55" t="str">
         <f>IF(bottom!A16="", "", bottom!A16)</f>
         <v/>
       </c>
-      <c r="B39" s="56" t="str">
+      <c r="B39" s="71" t="str">
         <f>IF(bottom!B16="", "", bottom!B16)</f>
         <v/>
       </c>
-      <c r="C39" s="61" t="str">
+      <c r="C39" s="71" t="str">
         <f>IF(bottom!C16="", "", bottom!C16)</f>
         <v/>
       </c>
-      <c r="D39" s="61" t="str">
+      <c r="D39" s="71" t="str">
         <f>IF(bottom!D16="", "", bottom!D16)</f>
         <v/>
       </c>
-      <c r="E39" s="61" t="str">
+      <c r="E39" s="71" t="str">
         <f>IF(bottom!E16="", "", bottom!E16)</f>
         <v/>
       </c>
-      <c r="F39" s="56" t="str">
+      <c r="F39" s="71" t="str">
         <f>IF(bottom!F16="", "", bottom!F16)</f>
         <v/>
       </c>
-      <c r="G39" s="56" t="str">
+      <c r="G39" s="71" t="str">
         <f>IF(bottom!A16="", "", bottom!G16)</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="56" t="str">
+      <c r="A40" s="55" t="str">
         <f>IF(bottom!A17="", "", bottom!A17)</f>
         <v/>
       </c>
-      <c r="B40" s="56" t="str">
+      <c r="B40" s="71" t="str">
         <f>IF(bottom!B17="", "", bottom!B17)</f>
         <v/>
       </c>
-      <c r="C40" s="61" t="str">
+      <c r="C40" s="71" t="str">
         <f>IF(bottom!C17="", "", bottom!C17)</f>
         <v/>
       </c>
-      <c r="D40" s="61" t="str">
+      <c r="D40" s="71" t="str">
         <f>IF(bottom!D17="", "", bottom!D17)</f>
         <v/>
       </c>
-      <c r="E40" s="61" t="str">
+      <c r="E40" s="71" t="str">
         <f>IF(bottom!E17="", "", bottom!E17)</f>
         <v/>
       </c>
-      <c r="F40" s="56" t="str">
+      <c r="F40" s="71" t="str">
         <f>IF(bottom!F17="", "", bottom!F17)</f>
         <v/>
       </c>
-      <c r="G40" s="56" t="str">
+      <c r="G40" s="71" t="str">
         <f>IF(bottom!A17="", "", bottom!G17)</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="str">
+      <c r="A41" s="55" t="str">
         <f>IF(bottom!A18="", "", bottom!A18)</f>
         <v/>
       </c>
-      <c r="B41" s="56" t="str">
+      <c r="B41" s="71" t="str">
         <f>IF(bottom!B18="", "", bottom!B18)</f>
         <v/>
       </c>
-      <c r="C41" s="61" t="str">
+      <c r="C41" s="71" t="str">
         <f>IF(bottom!C18="", "", bottom!C18)</f>
         <v/>
       </c>
-      <c r="D41" s="61" t="str">
+      <c r="D41" s="71" t="str">
         <f>IF(bottom!D18="", "", bottom!D18)</f>
         <v/>
       </c>
-      <c r="E41" s="61" t="str">
+      <c r="E41" s="71" t="str">
         <f>IF(bottom!E18="", "", bottom!E18)</f>
         <v/>
       </c>
-      <c r="F41" s="56" t="str">
+      <c r="F41" s="71" t="str">
         <f>IF(bottom!F18="", "", bottom!F18)</f>
         <v/>
       </c>
-      <c r="G41" s="56" t="str">
+      <c r="G41" s="71" t="str">
         <f>IF(bottom!A18="", "", bottom!G18)</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="str">
+      <c r="A42" s="55" t="str">
         <f>IF(bottom!A19="", "", bottom!A19)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B42" s="56">
+      <c r="B42" s="71">
         <f>IF(bottom!B19="", "", bottom!B19)</f>
         <v>26</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="71">
         <f>IF(bottom!C19="", "", bottom!C19)</f>
         <v>-164.31535329954585</v>
       </c>
-      <c r="D42" s="61">
+      <c r="D42" s="71">
         <f>IF(bottom!D19="", "", bottom!D19)</f>
         <v>84.60254037844382</v>
       </c>
-      <c r="E42" s="61">
+      <c r="E42" s="71">
         <f>IF(bottom!E19="", "", bottom!E19)</f>
         <v>-89.999719388456853</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="71">
         <f>IF(bottom!F19="", "", bottom!F19)</f>
         <v>5</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="71">
         <f>IF(bottom!A19="", "", bottom!G19)</f>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="str">
+      <c r="A43" s="55" t="str">
         <f>IF(bottom!A20="", "", bottom!A20)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="71">
         <f>IF(bottom!B20="", "", bottom!B20)</f>
         <v>21</v>
       </c>
-      <c r="C43" s="61">
+      <c r="C43" s="71">
         <f>IF(bottom!C20="", "", bottom!C20)</f>
         <v>-155.07774899251183</v>
       </c>
-      <c r="D43" s="61">
+      <c r="D43" s="71">
         <f>IF(bottom!D20="", "", bottom!D20)</f>
         <v>100.60254037844379</v>
       </c>
-      <c r="E43" s="61">
+      <c r="E43" s="71">
         <f>IF(bottom!E20="", "", bottom!E20)</f>
         <v>-29.999859694228427</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="71">
         <f>IF(bottom!F20="", "", bottom!F20)</f>
         <v>5</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="71">
         <f>IF(bottom!A20="", "", bottom!G20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="56" t="str">
+      <c r="A44" s="55" t="str">
         <f>IF(bottom!A21="", "", bottom!A21)</f>
         <v/>
       </c>
-      <c r="B44" s="56" t="str">
+      <c r="B44" s="71" t="str">
         <f>IF(bottom!B21="", "", bottom!B21)</f>
         <v/>
       </c>
-      <c r="C44" s="61" t="str">
+      <c r="C44" s="71" t="str">
         <f>IF(bottom!C21="", "", bottom!C21)</f>
         <v/>
       </c>
-      <c r="D44" s="61" t="str">
+      <c r="D44" s="71" t="str">
         <f>IF(bottom!D21="", "", bottom!D21)</f>
         <v/>
       </c>
-      <c r="E44" s="61" t="str">
+      <c r="E44" s="71" t="str">
         <f>IF(bottom!E21="", "", bottom!E21)</f>
         <v/>
       </c>
-      <c r="F44" s="56" t="str">
+      <c r="F44" s="71" t="str">
         <f>IF(bottom!F21="", "", bottom!F21)</f>
         <v/>
       </c>
-      <c r="G44" s="56" t="str">
+      <c r="G44" s="71" t="str">
         <f>IF(bottom!A21="", "", bottom!G21)</f>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="56" t="str">
+      <c r="A45" s="55" t="str">
         <f>IF(bottom!A22="", "", bottom!A22)</f>
         <v/>
       </c>
-      <c r="B45" s="56" t="str">
+      <c r="B45" s="71" t="str">
         <f>IF(bottom!B22="", "", bottom!B22)</f>
         <v/>
       </c>
-      <c r="C45" s="61" t="str">
+      <c r="C45" s="71" t="str">
         <f>IF(bottom!C22="", "", bottom!C22)</f>
         <v/>
       </c>
-      <c r="D45" s="61" t="str">
+      <c r="D45" s="71" t="str">
         <f>IF(bottom!D22="", "", bottom!D22)</f>
         <v/>
       </c>
-      <c r="E45" s="61" t="str">
+      <c r="E45" s="71" t="str">
         <f>IF(bottom!E22="", "", bottom!E22)</f>
         <v/>
       </c>
-      <c r="F45" s="56" t="str">
+      <c r="F45" s="71" t="str">
         <f>IF(bottom!F22="", "", bottom!F22)</f>
         <v/>
       </c>
-      <c r="G45" s="56" t="str">
+      <c r="G45" s="71" t="str">
         <f>IF(bottom!A22="", "", bottom!G22)</f>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="str">
+      <c r="A46" s="55" t="str">
         <f>IF(bottom!A23="", "", bottom!A23)</f>
         <v>triangle_10pad</v>
       </c>
-      <c r="B46" s="56">
+      <c r="B46" s="71">
         <f>IF(bottom!B23="", "", bottom!B23)</f>
         <v>27</v>
       </c>
-      <c r="C46" s="61">
+      <c r="C46" s="71">
         <f>IF(bottom!C23="", "", bottom!C23)</f>
         <v>-155.07774899251186</v>
       </c>
-      <c r="D46" s="61">
+      <c r="D46" s="71">
         <f>IF(bottom!D23="", "", bottom!D23)</f>
         <v>68.60254037844382</v>
       </c>
-      <c r="E46" s="61">
+      <c r="E46" s="71">
         <f>IF(bottom!E23="", "", bottom!E23)</f>
         <v>-149.99957908268468</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="71">
         <f>IF(bottom!F23="", "", bottom!F23)</f>
         <v>5</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="71">
         <f>IF(bottom!A23="", "", bottom!G23)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="str">
+      <c r="A47" s="55" t="str">
         <f>IF(bottom!A24="", "", bottom!A24)</f>
         <v/>
       </c>
-      <c r="B47" s="56" t="str">
+      <c r="B47" s="71" t="str">
         <f>IF(bottom!B24="", "", bottom!B24)</f>
         <v/>
       </c>
-      <c r="C47" s="61" t="str">
+      <c r="C47" s="71" t="str">
         <f>IF(bottom!C24="", "", bottom!C24)</f>
         <v/>
       </c>
-      <c r="D47" s="61" t="str">
+      <c r="D47" s="71" t="str">
         <f>IF(bottom!D24="", "", bottom!D24)</f>
         <v/>
       </c>
-      <c r="E47" s="61" t="str">
+      <c r="E47" s="71" t="str">
         <f>IF(bottom!E24="", "", bottom!E24)</f>
         <v/>
       </c>
-      <c r="F47" s="56" t="str">
+      <c r="F47" s="71" t="str">
         <f>IF(bottom!F24="", "", bottom!F24)</f>
         <v/>
       </c>
-      <c r="G47" s="56" t="str">
+      <c r="G47" s="71" t="str">
         <f>IF(bottom!A24="", "", bottom!G24)</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="56" t="str">
+      <c r="A48" s="55" t="str">
         <f>IF(bottom!A25="", "", bottom!A25)</f>
         <v/>
       </c>
-      <c r="B48" s="56" t="str">
+      <c r="B48" s="71" t="str">
         <f>IF(bottom!B25="", "", bottom!B25)</f>
         <v/>
       </c>
-      <c r="C48" s="61" t="str">
+      <c r="C48" s="71" t="str">
         <f>IF(bottom!C25="", "", bottom!C25)</f>
         <v/>
       </c>
-      <c r="D48" s="61" t="str">
+      <c r="D48" s="71" t="str">
         <f>IF(bottom!D25="", "", bottom!D25)</f>
         <v/>
       </c>
-      <c r="E48" s="61" t="str">
+      <c r="E48" s="71" t="str">
         <f>IF(bottom!E25="", "", bottom!E25)</f>
         <v/>
       </c>
-      <c r="F48" s="56" t="str">
+      <c r="F48" s="71" t="str">
         <f>IF(bottom!F25="", "", bottom!F25)</f>
         <v/>
       </c>
-      <c r="G48" s="56" t="str">
+      <c r="G48" s="71" t="str">
         <f>IF(bottom!A25="", "", bottom!G25)</f>
         <v/>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="55"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="62"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="55"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
+      <c r="G54" s="72"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="62"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="72"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="72"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="72"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="72"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="55"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="72"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="55"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
+      <c r="G66" s="72"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="55"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="72"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="72"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="72"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="72"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="55"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="72"/>
+      <c r="G69" s="72"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="55"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="72"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="72"/>
+      <c r="G70" s="72"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="55"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="F71" s="72"/>
+      <c r="G71" s="72"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-      <c r="B72" s="58"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="73"/>
       <c r="C72" s="73"/>
       <c r="D72" s="73"/>
       <c r="E72" s="73"/>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="73"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="68"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="73"/>
       <c r="C73" s="73"/>
       <c r="D73" s="73"/>
       <c r="E73" s="73"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="73"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="68"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="73"/>
       <c r="C74" s="73"/>
       <c r="D74" s="73"/>
       <c r="E74" s="73"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="73"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="68"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="73"/>
       <c r="C75" s="73"/>
       <c r="D75" s="73"/>
       <c r="E75" s="73"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="68"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="73"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="68"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="73"/>
       <c r="C76" s="73"/>
       <c r="D76" s="73"/>
       <c r="E76" s="73"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="73"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
-      <c r="B77" s="68"/>
+      <c r="A77" s="64"/>
+      <c r="B77" s="73"/>
       <c r="C77" s="73"/>
       <c r="D77" s="73"/>
       <c r="E77" s="73"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="73"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
-      <c r="B78" s="68"/>
+      <c r="A78" s="64"/>
+      <c r="B78" s="73"/>
       <c r="C78" s="73"/>
       <c r="D78" s="73"/>
       <c r="E78" s="73"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
+      <c r="F78" s="73"/>
+      <c r="G78" s="73"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
-      <c r="B79" s="68"/>
+      <c r="A79" s="64"/>
+      <c r="B79" s="73"/>
       <c r="C79" s="73"/>
       <c r="D79" s="73"/>
       <c r="E79" s="73"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="68"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
-      <c r="B80" s="68"/>
+      <c r="A80" s="64"/>
+      <c r="B80" s="73"/>
       <c r="C80" s="73"/>
       <c r="D80" s="73"/>
       <c r="E80" s="73"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
-      <c r="B81" s="68"/>
+      <c r="A81" s="64"/>
+      <c r="B81" s="73"/>
       <c r="C81" s="73"/>
       <c r="D81" s="73"/>
       <c r="E81" s="73"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="68"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
-      <c r="B82" s="68"/>
+      <c r="A82" s="64"/>
+      <c r="B82" s="73"/>
       <c r="C82" s="73"/>
       <c r="D82" s="73"/>
       <c r="E82" s="73"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
-      <c r="B83" s="68"/>
+      <c r="A83" s="64"/>
+      <c r="B83" s="73"/>
       <c r="C83" s="73"/>
       <c r="D83" s="73"/>
       <c r="E83" s="73"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="68"/>
+      <c r="A84" s="64"/>
+      <c r="B84" s="73"/>
       <c r="C84" s="73"/>
       <c r="D84" s="73"/>
       <c r="E84" s="73"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
-      <c r="B85" s="68"/>
+      <c r="A85" s="64"/>
+      <c r="B85" s="73"/>
       <c r="C85" s="73"/>
       <c r="D85" s="73"/>
       <c r="E85" s="73"/>
-      <c r="F85" s="68"/>
-      <c r="G85" s="68"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="68"/>
+      <c r="A86" s="64"/>
+      <c r="B86" s="73"/>
       <c r="C86" s="73"/>
       <c r="D86" s="73"/>
       <c r="E86" s="73"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="68"/>
+      <c r="A87" s="64"/>
+      <c r="B87" s="73"/>
       <c r="C87" s="73"/>
       <c r="D87" s="73"/>
       <c r="E87" s="73"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="68"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="73"/>
       <c r="C88" s="73"/>
       <c r="D88" s="73"/>
       <c r="E88" s="73"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
-      <c r="B89" s="68"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="73"/>
       <c r="C89" s="73"/>
       <c r="D89" s="73"/>
       <c r="E89" s="73"/>
-      <c r="F89" s="68"/>
-      <c r="G89" s="68"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="68"/>
-      <c r="B90" s="68"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="73"/>
       <c r="C90" s="73"/>
       <c r="D90" s="73"/>
       <c r="E90" s="73"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="68"/>
-      <c r="B91" s="68"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="73"/>
       <c r="C91" s="73"/>
       <c r="D91" s="73"/>
       <c r="E91" s="73"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="68"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="73"/>
       <c r="C92" s="73"/>
       <c r="D92" s="73"/>
       <c r="E92" s="73"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="73"/>
       <c r="C93" s="73"/>
       <c r="D93" s="73"/>
       <c r="E93" s="73"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="68"/>
-      <c r="B94" s="68"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="73"/>
       <c r="C94" s="73"/>
       <c r="D94" s="73"/>
       <c r="E94" s="73"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="59"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="74"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="59"/>
-      <c r="G95" s="59"/>
+      <c r="A95" s="58"/>
+      <c r="B95" s="58"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="2"/>
+    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="top" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="32">
   <si>
     <t>[SENSORS]</t>
   </si>
@@ -104,6 +104,15 @@
   <si>
     <t>triangle_10pad_10pad #</t>
   </si>
+  <si>
+    <t>Triangle # for the MTB</t>
+  </si>
+  <si>
+    <t>card ID 13</t>
+  </si>
+  <si>
+    <t>card ID 12</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +280,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +661,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +800,12 @@
     <xf numFmtId="1" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -806,13 +833,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>72144</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>979316</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -824,8 +851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10985073" y="2423105"/>
-          <a:ext cx="4349779" cy="4100085"/>
+          <a:off x="11905556" y="2425506"/>
+          <a:ext cx="4358584" cy="4097684"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
         </a:xfrm>
@@ -1830,13 +1857,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>48612</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>97915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>558124</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>136534</xdr:rowOff>
@@ -2010,13 +2037,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>5620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>1681</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2028,7 +2055,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10250287" y="0"/>
+          <a:off x="11615537" y="0"/>
           <a:ext cx="4028311" cy="0"/>
           <a:chOff x="10981462" y="1799664"/>
           <a:chExt cx="5588677" cy="4621561"/>
@@ -3034,13 +3061,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>534786</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>150712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>328083</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>46190</xdr:rowOff>
@@ -3052,7 +3079,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10239703" y="2320295"/>
+          <a:off x="11604953" y="2320295"/>
           <a:ext cx="4365297" cy="3716062"/>
           <a:chOff x="10968014" y="1847464"/>
           <a:chExt cx="5518210" cy="4625913"/>
@@ -4058,13 +4085,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>216300</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>179936</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>30895</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47586</xdr:rowOff>
@@ -5420,10 +5447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T55"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,23 +5467,24 @@
     <col min="10" max="10" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -5489,20 +5517,23 @@
       <c r="L2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>26</v>
       </c>
@@ -5511,22 +5542,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="60">
-        <f>((+O3*COS($N$3)-P3*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P3*COS($O$3)-Q3*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-183.10254037844388</v>
       </c>
       <c r="D3" s="60">
-        <f>((O3*SIN($N$3)+P3*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P3*SIN($O$3)+Q3*COS($O$3)+$O$9)*$S$4)</f>
         <v>116.60254037844388</v>
       </c>
       <c r="E3" s="60">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M3/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N3/3.1416*180)+$O$5)</f>
         <v>89.999719388456853</v>
       </c>
       <c r="F3" s="59">
         <v>5</v>
       </c>
       <c r="G3" s="62">
-        <f t="shared" ref="G3:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G3:G7" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H3" s="1"/>
@@ -5540,30 +5571,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="76">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="36">
+      <c r="Q3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="R3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="48">
+      <c r="S3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>26</v>
       </c>
@@ -5572,15 +5607,15 @@
         <v>1</v>
       </c>
       <c r="C4" s="60">
-        <f t="shared" ref="C4:C7" si="3">((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C4:C7" si="3">((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-192.3401446854779</v>
       </c>
       <c r="D4" s="60">
-        <f t="shared" ref="D4:D7" si="4">((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D4:D7" si="4">((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>132.60254037844385</v>
       </c>
       <c r="E4" s="60">
-        <f t="shared" ref="E4:E7" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E4:E7" si="5">IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>29.999859694228427</v>
       </c>
       <c r="F4" s="59">
@@ -5601,27 +5636,31 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="76">
+        <f t="shared" ref="M4:M25" si="6">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="38">
+      <c r="P4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="39">
+      <c r="Q4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="R4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="50">
+      <c r="S4" s="50">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>26</v>
       </c>
@@ -5659,26 +5698,30 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="76">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>30</v>
       </c>
-      <c r="O5" s="38">
+      <c r="P5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="39">
+      <c r="Q5" s="39">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
@@ -5716,24 +5759,28 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="76">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="38">
+      <c r="P6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="39">
+      <c r="Q6" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
@@ -5771,23 +5818,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="76">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>146.5</v>
       </c>
-      <c r="O7" s="38">
+      <c r="P7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="39">
+      <c r="Q7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="30"/>
       <c r="C8" s="23"/>
@@ -5806,23 +5857,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="75">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="O8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="38">
+      <c r="P8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="39">
+      <c r="Q8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="30"/>
       <c r="C9" s="23"/>
@@ -5840,21 +5895,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="75">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>-20</v>
       </c>
-      <c r="O9" s="38">
+      <c r="P9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="39">
+      <c r="Q9" s="39">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="30"/>
       <c r="C10" s="23"/>
@@ -5872,44 +5931,48 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="75">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="38">
+      <c r="P10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="39">
+      <c r="Q10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="60">
-        <f t="shared" ref="B11:B14" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f t="shared" ref="B11:B14" si="7">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>12</v>
       </c>
       <c r="C11" s="60">
-        <f t="shared" ref="C11:C14" si="7">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C11:C14" si="8">((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-183.1025403784439</v>
       </c>
       <c r="D11" s="60">
-        <f t="shared" ref="D11:D14" si="8">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D11:D14" si="9">((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
         <v>148.60254037844382</v>
       </c>
       <c r="E11" s="60">
-        <f t="shared" ref="E11:E14" si="9">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E11:E14" si="10">IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
         <v>-30</v>
       </c>
       <c r="F11" s="59">
         <v>5</v>
       </c>
       <c r="G11" s="62">
-        <f t="shared" ref="G11:G14" si="10">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11:G14" si="11">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
@@ -5922,44 +5985,48 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="76">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="52">
+      <c r="O11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="39">
+      <c r="Q11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="C12" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-192.34014468547792</v>
       </c>
       <c r="D12" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>164.60254037844379</v>
       </c>
       <c r="E12" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.999859694228427</v>
       </c>
       <c r="F12" s="59">
         <v>5</v>
       </c>
       <c r="G12" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
@@ -5972,42 +6039,46 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="76">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="38">
+      <c r="O12" s="4"/>
+      <c r="P12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="39">
+      <c r="Q12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C13" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-183.1025403784439</v>
       </c>
       <c r="D13" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>180.60254037844379</v>
       </c>
       <c r="E13" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-30</v>
       </c>
       <c r="F13" s="59">
         <v>5</v>
       </c>
       <c r="G13" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -6020,42 +6091,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="76">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="38">
+      <c r="O13" s="4"/>
+      <c r="P13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="39">
+      <c r="Q13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C14" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-164.62733176437592</v>
       </c>
       <c r="D14" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>180.60254037844379</v>
       </c>
       <c r="E14" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-89.999859694228434</v>
       </c>
       <c r="F14" s="59">
         <v>5</v>
       </c>
       <c r="G14" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
@@ -6068,18 +6143,22 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="76">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="38">
+      <c r="O14" s="4"/>
+      <c r="P14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="39">
+      <c r="Q14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="30"/>
       <c r="C15" s="23"/>
@@ -6097,18 +6176,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="75">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="38">
+      <c r="O15" s="4"/>
+      <c r="P15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="39">
+      <c r="Q15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="30"/>
       <c r="C16" s="23"/>
@@ -6126,18 +6209,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="75">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="38">
+      <c r="O16" s="4"/>
+      <c r="P16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="39">
+      <c r="Q16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
@@ -6155,18 +6242,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="75">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="38">
+      <c r="O17" s="4"/>
+      <c r="P17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="39">
+      <c r="Q17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30"/>
       <c r="C18" s="23"/>
@@ -6184,42 +6275,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="75">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="38">
+      <c r="O18" s="4"/>
+      <c r="P18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="39">
+      <c r="Q18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="60">
-        <f t="shared" ref="B19" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <f t="shared" ref="B19" si="12">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>10</v>
       </c>
       <c r="C19" s="60">
-        <f>((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P19*COS($O$3)-Q19*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-155.38972745734191</v>
       </c>
       <c r="D19" s="60">
-        <f>((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P19*SIN($O$3)+Q19*COS($O$3)+$O$9)*$S$4)</f>
         <v>164.60254037844382</v>
       </c>
       <c r="E19" s="60">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N19/3.1416*180)+$O$5)</f>
         <v>-149.99971938845687</v>
       </c>
       <c r="F19" s="59">
         <v>5</v>
       </c>
       <c r="G19" s="62">
-        <f t="shared" ref="G19" si="12">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G19" si="13">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
@@ -6232,18 +6327,22 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="76">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="38">
+      <c r="O19" s="4"/>
+      <c r="P19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="39">
+      <c r="Q19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="30"/>
       <c r="C20" s="23"/>
@@ -6261,18 +6360,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="75">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="38">
+      <c r="O20" s="4"/>
+      <c r="P20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="39">
+      <c r="Q20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="30"/>
       <c r="C21" s="23"/>
@@ -6290,18 +6393,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="75">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="38">
+      <c r="O21" s="4"/>
+      <c r="P21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="39">
+      <c r="Q21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="30"/>
       <c r="C22" s="23"/>
@@ -6319,42 +6426,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="38">
+      <c r="O22" s="4"/>
+      <c r="P22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="39">
+      <c r="Q22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="60">
-        <f t="shared" ref="B23:B25" si="13">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <f t="shared" ref="B23:B25" si="14">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>11</v>
       </c>
       <c r="C23" s="60">
-        <f t="shared" ref="C23:C25" si="14">((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C23:C25" si="15">((+P23*COS($O$3)-Q23*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-164.6273317643759</v>
       </c>
       <c r="D23" s="60">
-        <f t="shared" ref="D23:D25" si="15">((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D23:D25" si="16">((P23*SIN($O$3)+Q23*COS($O$3)+$O$9)*$S$4)</f>
         <v>148.60254037844382</v>
       </c>
       <c r="E23" s="60">
-        <f t="shared" ref="E23:E25" si="16">IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E23:E25" si="17">IF(($S$3*$S$4)=1,1,-1)*(($N23/3.1416*180)+$O$5)</f>
         <v>-209.99957908268468</v>
       </c>
       <c r="F23" s="59">
         <v>5</v>
       </c>
       <c r="G23" s="62">
-        <f t="shared" ref="G23:G25" si="17">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G23:G25" si="18">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
@@ -6367,42 +6478,46 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="76">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="38">
+      <c r="O23" s="4"/>
+      <c r="P23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="39">
+      <c r="Q23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
       <c r="C24" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-155.38972745734185</v>
       </c>
       <c r="D24" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>132.60254037844382</v>
       </c>
       <c r="E24" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-149.99971938845687</v>
       </c>
       <c r="F24" s="59">
         <v>5</v>
       </c>
       <c r="G24" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I24" s="2"/>
@@ -6415,42 +6530,46 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="76">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="38">
+      <c r="O24" s="4"/>
+      <c r="P24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="39">
+      <c r="Q24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="C25" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-164.62733176437587</v>
       </c>
       <c r="D25" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>116.60254037844385</v>
       </c>
       <c r="E25" s="60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-209.99957908268468</v>
       </c>
       <c r="F25" s="59">
         <v>5</v>
       </c>
       <c r="G25" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="I25" s="2"/>
@@ -6463,260 +6582,293 @@
       <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="76">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45">
+      <c r="O25" s="44"/>
+      <c r="P25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="46">
+      <c r="Q25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J27" s="77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
-      <c r="M32" s="7"/>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G33" s="7"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="7"/>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G34" s="7"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="7"/>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G35" s="7"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="7"/>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G36" s="7"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="7"/>
-    </row>
-    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G37" s="7"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="7"/>
-    </row>
-    <row r="38" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G38" s="7"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="7"/>
-    </row>
-    <row r="39" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G39" s="7"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="7"/>
-    </row>
-    <row r="40" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G40" s="7"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="7"/>
-    </row>
-    <row r="41" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G41" s="7"/>
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="7"/>
-    </row>
-    <row r="42" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G42" s="7"/>
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="7"/>
-    </row>
-    <row r="43" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G44" s="7"/>
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G45" s="7"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="7"/>
-    </row>
-    <row r="46" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G46" s="7"/>
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="7"/>
-    </row>
-    <row r="47" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G47" s="7"/>
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="7"/>
-    </row>
-    <row r="48" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G48" s="7"/>
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="7"/>
-    </row>
-    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G49" s="7"/>
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="7"/>
-    </row>
-    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G50" s="7"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="7"/>
-    </row>
-    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G51" s="7"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="7"/>
-    </row>
-    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G52" s="7"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="7"/>
-    </row>
-    <row r="53" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G53" s="7"/>
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G54" s="7"/>
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="7"/>
-    </row>
-    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="7:15" x14ac:dyDescent="0.25">
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
@@ -6725,6 +6877,7 @@
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6735,38 +6888,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
@@ -6799,20 +6953,23 @@
       <c r="L2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="O2" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="28" t="s">
+      <c r="P2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="Q2" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="61"/>
       <c r="B3" s="30"/>
       <c r="C3" s="60"/>
@@ -6831,30 +6988,34 @@
       <c r="L3" s="13">
         <v>10</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="75">
+        <f>(ROUND((L3/10),0)-1)*4+(MOD(L3,10))</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N3" s="14">
-        <f>+RADIANS(N5)</f>
+      <c r="O3" s="14">
+        <f>+RADIANS(O5)</f>
         <v>-0.52359877559829882</v>
       </c>
-      <c r="O3" s="15">
+      <c r="P3" s="15">
         <v>100</v>
       </c>
-      <c r="P3" s="36">
+      <c r="Q3" s="36">
         <v>100</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="R3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="48">
+      <c r="S3" s="48">
         <v>-1</v>
       </c>
-      <c r="T3" s="20" t="s">
+      <c r="U3" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>26</v>
       </c>
@@ -6863,22 +7024,22 @@
         <v>17</v>
       </c>
       <c r="C4" s="60">
-        <f>((+O4*COS($N$3)-P4*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P4*COS($O$3)-Q4*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-155.07774899251189</v>
       </c>
       <c r="D4" s="60">
-        <f>((O4*SIN($N$3)+P4*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P4*SIN($O$3)+Q4*COS($O$3)+$O$9)*$S$4)</f>
         <v>36.602540378443869</v>
       </c>
       <c r="E4" s="60">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M4/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N4/3.1416*180)+$O$5)</f>
         <v>89.999859694228434</v>
       </c>
       <c r="F4" s="59">
         <v>5</v>
       </c>
       <c r="G4" s="62">
-        <f t="shared" ref="G4:G7" si="1">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G4:G7" si="1">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="H4" s="1"/>
@@ -6892,44 +7053,48 @@
       <c r="L4" s="5">
         <v>11</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="76">
+        <f t="shared" ref="M4:M25" si="2">(ROUND((L4/10),0)-1)*4+(MOD(L4,10))</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="38">
+      <c r="P4" s="38">
         <v>116</v>
       </c>
-      <c r="P4" s="39">
+      <c r="Q4" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="R4" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="50">
+      <c r="S4" s="50">
         <v>1</v>
       </c>
-      <c r="S4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="60">
-        <f t="shared" ref="B5:B7" si="2">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
+        <f t="shared" ref="B5:B7" si="3">((ROUND($L5/10,0))-1)*4+MOD($L5,10)+((J5-1)*16)</f>
         <v>18</v>
       </c>
       <c r="C5" s="60">
-        <f t="shared" ref="C5:C7" si="3">((+O5*COS($N$3)-P5*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C5:C7" si="4">((+P5*COS($O$3)-Q5*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-164.3153532995459</v>
       </c>
       <c r="D5" s="60">
-        <f t="shared" ref="D5:D7" si="4">((O5*SIN($N$3)+P5*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D5:D7" si="5">((P5*SIN($O$3)+Q5*COS($O$3)+$O$9)*$S$4)</f>
         <v>20.602540378443891</v>
       </c>
       <c r="E5" s="60">
-        <f t="shared" ref="E5:E7" si="5">IF(($R$3*$R$4)=1,1,-1)*(($M5/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E5:E7" si="6">IF(($S$3*$S$4)=1,1,-1)*(($N5/3.1416*180)+$O$5)</f>
         <v>149.99971938845687</v>
       </c>
       <c r="F5" s="59">
@@ -6950,43 +7115,47 @@
       <c r="L5" s="5">
         <v>12</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="76">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N5" s="6">
         <v>-2.0943951023932001</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>-30</v>
       </c>
-      <c r="O5" s="38">
+      <c r="P5" s="38">
         <v>132</v>
       </c>
-      <c r="P5" s="39">
+      <c r="Q5" s="39">
         <v>100</v>
       </c>
-      <c r="Q5" s="9"/>
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="9"/>
+      <c r="U5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="C6" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-182.79056191361394</v>
       </c>
       <c r="D6" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.602540378443877</v>
       </c>
       <c r="E6" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>89.999859694228434</v>
       </c>
       <c r="F6" s="59">
@@ -7007,41 +7176,45 @@
       <c r="L6" s="5">
         <v>13</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="76">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="O6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="38">
+      <c r="P6" s="38">
         <v>148</v>
       </c>
-      <c r="P6" s="39">
+      <c r="Q6" s="39">
         <v>109.237604307034</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="17" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="C7" s="60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-192.02816622064793</v>
       </c>
       <c r="D7" s="60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.602540378443848</v>
       </c>
       <c r="E7" s="60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="F7" s="59">
@@ -7062,23 +7235,27 @@
       <c r="L7" s="5">
         <v>20</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="76">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="38">
+      <c r="P7" s="38">
         <v>148</v>
       </c>
-      <c r="P7" s="39">
+      <c r="Q7" s="39">
         <v>127.712812921102</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="30"/>
       <c r="C8" s="23"/>
@@ -7097,23 +7274,27 @@
       <c r="L8" s="5">
         <v>21</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="75">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N8" s="40" t="s">
+      <c r="O8" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="38">
+      <c r="P8" s="38">
         <v>164</v>
       </c>
-      <c r="P8" s="39">
+      <c r="Q8" s="39">
         <v>136.95041722813599</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="U8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="30"/>
       <c r="C9" s="23"/>
@@ -7131,21 +7312,25 @@
       <c r="L9" s="5">
         <v>22</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="75">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="38">
+      <c r="P9" s="38">
         <v>164</v>
       </c>
-      <c r="P9" s="39">
+      <c r="Q9" s="39">
         <v>155.425625842204</v>
       </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="30"/>
       <c r="C10" s="23"/>
@@ -7163,44 +7348,48 @@
       <c r="L10" s="5">
         <v>23</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="75">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="38">
+      <c r="P10" s="38">
         <v>148</v>
       </c>
-      <c r="P10" s="39">
+      <c r="Q10" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="60">
-        <f t="shared" ref="B11:B15" si="6">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
+        <f t="shared" ref="B11:B15" si="7">((ROUND($L11/10,0))-1)*4+MOD($L11,10)+((J11-1)*16)</f>
         <v>28</v>
       </c>
       <c r="C11" s="60">
-        <f t="shared" ref="C11:C15" si="7">((+O11*COS($N$3)-P11*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C11:C15" si="8">((+P11*COS($O$3)-Q11*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-164.31535329954588</v>
       </c>
       <c r="D11" s="60">
-        <f t="shared" ref="D11:D15" si="8">((O11*SIN($N$3)+P11*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D11:D15" si="9">((P11*SIN($O$3)+Q11*COS($O$3)+$O$9)*$S$4)</f>
         <v>52.602540378443841</v>
       </c>
       <c r="E11" s="60">
-        <f t="shared" ref="E11:E15" si="9">IF(($R$3*$R$4)=1,1,-1)*(($M11/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E11:E15" si="10">IF(($S$3*$S$4)=1,1,-1)*(($N11/3.1416*180)+$O$5)</f>
         <v>30</v>
       </c>
       <c r="F11" s="59">
         <v>5</v>
       </c>
       <c r="G11" s="62">
-        <f t="shared" ref="G11:G15" si="10">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G11:G15" si="11">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I11" s="1"/>
@@ -7213,44 +7402,48 @@
       <c r="L11" s="5">
         <v>40</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="76">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="52">
+      <c r="O11" s="52">
         <v>0</v>
       </c>
-      <c r="O11" s="38">
+      <c r="P11" s="38">
         <v>116</v>
       </c>
-      <c r="P11" s="39">
+      <c r="Q11" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="C12" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-182.79056191361389</v>
       </c>
       <c r="D12" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52.602540378443834</v>
       </c>
       <c r="E12" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>89.999859694228434</v>
       </c>
       <c r="F12" s="59">
         <v>5</v>
       </c>
       <c r="G12" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I12" s="1"/>
@@ -7263,42 +7456,46 @@
       <c r="L12" s="5">
         <v>41</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="76">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="N12" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="38">
+      <c r="O12" s="4"/>
+      <c r="P12" s="38">
         <v>132</v>
       </c>
-      <c r="P12" s="39">
+      <c r="Q12" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C13" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-192.0281662206479</v>
       </c>
       <c r="D13" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.602540378443834</v>
       </c>
       <c r="E13" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="F13" s="59">
         <v>5</v>
       </c>
       <c r="G13" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I13" s="1"/>
@@ -7311,42 +7508,46 @@
       <c r="L13" s="5">
         <v>30</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="76">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="N13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="38">
+      <c r="O13" s="4"/>
+      <c r="P13" s="38">
         <v>132</v>
       </c>
-      <c r="P13" s="39">
+      <c r="Q13" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C14" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-182.79056191361389</v>
       </c>
       <c r="D14" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>84.602540378443791</v>
       </c>
       <c r="E14" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F14" s="59">
         <v>5</v>
       </c>
       <c r="G14" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I14" s="1"/>
@@ -7359,42 +7560,46 @@
       <c r="L14" s="5">
         <v>31</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="76">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="N14" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="38">
+      <c r="O14" s="4"/>
+      <c r="P14" s="38">
         <v>116</v>
       </c>
-      <c r="P14" s="39">
+      <c r="Q14" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C15" s="60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-192.02816622064788</v>
       </c>
       <c r="D15" s="60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>100.60254037844379</v>
       </c>
       <c r="E15" s="60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="F15" s="59">
         <v>5</v>
       </c>
       <c r="G15" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="I15" s="1"/>
@@ -7407,18 +7612,22 @@
       <c r="L15" s="5">
         <v>22</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="76">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="38">
+      <c r="O15" s="4"/>
+      <c r="P15" s="38">
         <v>116</v>
       </c>
-      <c r="P15" s="39">
+      <c r="Q15" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="30"/>
       <c r="C16" s="23"/>
@@ -7436,18 +7645,22 @@
       <c r="L16" s="5">
         <v>23</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="75">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="N16" s="6">
         <v>-1.0471975511966001</v>
       </c>
-      <c r="N16" s="4"/>
-      <c r="O16" s="38">
+      <c r="O16" s="4"/>
+      <c r="P16" s="38">
         <v>132</v>
       </c>
-      <c r="P16" s="39">
+      <c r="Q16" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="30"/>
       <c r="C17" s="23"/>
@@ -7465,18 +7678,22 @@
       <c r="L17" s="5">
         <v>13</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="75">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="N17" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="38">
+      <c r="O17" s="4"/>
+      <c r="P17" s="38">
         <v>100</v>
       </c>
-      <c r="P17" s="39">
+      <c r="Q17" s="39">
         <v>192.37604307033999</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="30"/>
       <c r="C18" s="23"/>
@@ -7494,42 +7711,46 @@
       <c r="L18" s="5">
         <v>20</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="75">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="N18" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="38">
+      <c r="O18" s="4"/>
+      <c r="P18" s="38">
         <v>84</v>
       </c>
-      <c r="P18" s="39">
+      <c r="Q18" s="39">
         <v>183.138438763306</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="60">
-        <f t="shared" ref="B19:B20" si="11">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
+        <f t="shared" ref="B19:B20" si="12">((ROUND($L19/10,0))-1)*4+MOD($L19,10)+((J19-1)*16)</f>
         <v>26</v>
       </c>
       <c r="C19" s="60">
-        <f t="shared" ref="C19:C20" si="12">((+O19*COS($N$3)-P19*SIN($N$3)+$N$7)*$R$3)</f>
+        <f t="shared" ref="C19:C20" si="13">((+P19*COS($O$3)-Q19*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-164.31535329954585</v>
       </c>
       <c r="D19" s="60">
-        <f t="shared" ref="D19:D20" si="13">((O19*SIN($N$3)+P19*COS($N$3)+$N$9)*$R$4)</f>
+        <f t="shared" ref="D19:D20" si="14">((P19*SIN($O$3)+Q19*COS($O$3)+$O$9)*$S$4)</f>
         <v>84.60254037844382</v>
       </c>
       <c r="E19" s="60">
-        <f t="shared" ref="E19:E20" si="14">IF(($R$3*$R$4)=1,1,-1)*(($M19/3.1416*180)+$N$5)</f>
+        <f t="shared" ref="E19:E20" si="15">IF(($S$3*$S$4)=1,1,-1)*(($N19/3.1416*180)+$O$5)</f>
         <v>-89.999719388456853</v>
       </c>
       <c r="F19" s="59">
         <v>5</v>
       </c>
       <c r="G19" s="62">
-        <f t="shared" ref="G19:G20" si="15">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G19:G20" si="16">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I19" s="1"/>
@@ -7542,42 +7763,46 @@
       <c r="L19" s="5">
         <v>32</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="76">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N19" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="38">
+      <c r="O19" s="4"/>
+      <c r="P19" s="38">
         <v>100</v>
       </c>
-      <c r="P19" s="39">
+      <c r="Q19" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="C20" s="60">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-155.07774899251183</v>
       </c>
       <c r="D20" s="60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>100.60254037844379</v>
       </c>
       <c r="E20" s="60">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-29.999859694228427</v>
       </c>
       <c r="F20" s="59">
         <v>5</v>
       </c>
       <c r="G20" s="62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
@@ -7590,18 +7815,22 @@
       <c r="L20" s="5">
         <v>21</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="76">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N20" s="6">
         <v>1.0471975511966001</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="38">
+      <c r="O20" s="4"/>
+      <c r="P20" s="38">
         <v>84</v>
       </c>
-      <c r="P20" s="39">
+      <c r="Q20" s="39">
         <v>164.66323014923799</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="30"/>
       <c r="C21" s="23"/>
@@ -7619,18 +7848,22 @@
       <c r="L21" s="5">
         <v>43</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="75">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N21" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="38">
+      <c r="O21" s="4"/>
+      <c r="P21" s="38">
         <v>68</v>
       </c>
-      <c r="P21" s="39">
+      <c r="Q21" s="39">
         <v>155.425625842204</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="30"/>
       <c r="C22" s="23"/>
@@ -7648,42 +7881,46 @@
       <c r="L22" s="5">
         <v>10</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="38">
+      <c r="O22" s="4"/>
+      <c r="P22" s="38">
         <v>68</v>
       </c>
-      <c r="P22" s="39">
+      <c r="Q22" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="60">
-        <f t="shared" ref="B23" si="16">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
+        <f t="shared" ref="B23" si="17">((ROUND($L23/10,0))-1)*4+MOD($L23,10)+((J23-1)*16)</f>
         <v>27</v>
       </c>
       <c r="C23" s="60">
-        <f>((+O23*COS($N$3)-P23*SIN($N$3)+$N$7)*$R$3)</f>
+        <f>((+P23*COS($O$3)-Q23*SIN($O$3)+$O$7)*$S$3)</f>
         <v>-155.07774899251186</v>
       </c>
       <c r="D23" s="60">
-        <f>((O23*SIN($N$3)+P23*COS($N$3)+$N$9)*$R$4)</f>
+        <f>((P23*SIN($O$3)+Q23*COS($O$3)+$O$9)*$S$4)</f>
         <v>68.60254037844382</v>
       </c>
       <c r="E23" s="60">
-        <f>IF(($R$3*$R$4)=1,1,-1)*(($M23/3.1416*180)+$N$5)</f>
+        <f>IF(($S$3*$S$4)=1,1,-1)*(($N23/3.1416*180)+$O$5)</f>
         <v>-149.99957908268468</v>
       </c>
       <c r="F23" s="59">
         <v>5</v>
       </c>
       <c r="G23" s="62">
-        <f t="shared" ref="G23" si="17">IF($R$3*$R$4=-1,1,0)</f>
+        <f t="shared" ref="G23" si="18">IF($S$3*$S$4=-1,1,0)</f>
         <v>1</v>
       </c>
       <c r="I23" s="2"/>
@@ -7696,18 +7933,22 @@
       <c r="L23" s="5">
         <v>33</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="76">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="N23" s="6">
         <v>3.14159265358979</v>
       </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="38">
+      <c r="O23" s="4"/>
+      <c r="P23" s="38">
         <v>100</v>
       </c>
-      <c r="P23" s="39">
+      <c r="Q23" s="39">
         <v>136.95041722813599</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="61"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
@@ -7725,18 +7966,22 @@
       <c r="L24" s="5">
         <v>42</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="75">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="N24" s="6">
         <v>2.0943951023932001</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="38">
+      <c r="O24" s="4"/>
+      <c r="P24" s="38">
         <v>84</v>
       </c>
-      <c r="P24" s="39">
+      <c r="Q24" s="39">
         <v>127.712812921102</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
@@ -7754,24 +7999,108 @@
       <c r="L25" s="42">
         <v>43</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M25" s="75">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N25" s="43">
         <v>3.14159265358979</v>
       </c>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45">
+      <c r="O25" s="44"/>
+      <c r="P25" s="45">
         <v>84</v>
       </c>
-      <c r="P25" s="46">
+      <c r="Q25" s="46">
         <v>109.237604307034</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N30" s="53"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="77" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="8"/>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="8"/>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="8"/>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="8"/>
+    </row>
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="8"/>
+    </row>
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="8"/>
+    </row>
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="8"/>
+    </row>
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="8"/>
+    </row>
+    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M50" s="8"/>
+    </row>
+    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M51" s="8"/>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M52" s="8"/>
+    </row>
+    <row r="53" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M53" s="8"/>
+    </row>
+    <row r="54" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M54" s="8"/>
+    </row>
+    <row r="55" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7784,7 +8113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icub-main\app\skinGui\iniGenerators\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="bottom" sheetId="2" r:id="rId2"/>
     <sheet name="final ini" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -825,6 +830,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2025,6 +2033,810 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="it-IT" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="18111" r="7694"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3473824" y="6477000"/>
+          <a:ext cx="7115736" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>895788</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9031942" y="7182971"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>40342</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>375835</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8511989" y="7581900"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>271183</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>606676</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>14809</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7879977" y="7386917"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>748554</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120341</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99974</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7393642" y="7853082"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>878542</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250329</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>151522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523630" y="8476130"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>492376</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>79804</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8628530" y="8213912"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>522195</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>51547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>857688</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8130989" y="8624047"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>652183</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>124823</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>70839</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260977" y="9347947"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423583</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>759076</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>32739</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8895230" y="9500347"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>968189</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1303682</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9439836" y="9092453"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>784413</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1119906</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>147039</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9256060" y="8471647"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1284195</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1619688</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>64116</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9755842" y="8007724"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1156448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1491941</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171692</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9628095" y="7353300"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5157,6 +5969,751 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31749</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>98985</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="18111" r="7694"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3651249" y="5990167"/>
+          <a:ext cx="7115736" cy="3971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>37371</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>13128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>372864</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>70520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4270704" y="8098795"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>454354</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123194</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>176013</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4687687" y="7637361"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126271</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>461764</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>148836</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4359604" y="8748611"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>529167</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>864660</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>89142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7217834" y="8498417"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>22</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>589493</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6942667" y="7164917"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>21</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>385233</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6438900" y="7624234"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>26</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548216</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>188383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>248709</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>55275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6601883" y="8274050"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>25</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2116</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>337609</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38342</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6055783" y="8638117"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>24</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112183</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>48684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>106076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4959350" y="8896351"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>20</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>39159</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>163225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5323416" y="7810500"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>28</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586315</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>149225</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>93375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5433482" y="8502650"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>29</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198967</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71967</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100543</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>129359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5818717" y="7395634"/>
+          <a:ext cx="335493" cy="247892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>27</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5203,7 +6760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5238,7 +6795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5450,7 +7007,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="S52" sqref="S45:U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6891,7 +8448,7 @@
   <dimension ref="A1:U55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
+++ b/app/skinGui/iniGenerators/left_foot_ini_generator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\icub-main\app\skinGui\iniGenerators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDussoni\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="-270" windowWidth="12600" windowHeight="12975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="top" sheetId="1" r:id="rId1"/>
@@ -2127,7 +2127,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>0</a:t>
+            <a:t>10</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2186,7 +2186,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>1</a:t>
+            <a:t>11</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2245,7 +2245,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>2</a:t>
+            <a:t>14</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2304,7 +2304,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>3</a:t>
+            <a:t>15</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2363,7 +2363,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>4</a:t>
+            <a:t>0</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2481,7 +2481,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>13</a:t>
+            <a:t>1</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2540,7 +2540,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>8</a:t>
+            <a:t>2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2599,7 +2599,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>9</a:t>
+            <a:t>3</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2658,7 +2658,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>10</a:t>
+            <a:t>4</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2717,7 +2717,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>11</a:t>
+            <a:t>13</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2776,7 +2776,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>14</a:t>
+            <a:t>8</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2835,7 +2835,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>15</a:t>
+            <a:t>9</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7006,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S52" sqref="S45:U52"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8447,7 +8447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
